--- a/final_data_pipeline/output/311611_elec_options.xlsx
+++ b/final_data_pipeline/output/311611_elec_options.xlsx
@@ -999,7 +999,7 @@
         <v>44138.20517500199</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE2">
         <v>8000</v>
@@ -1094,7 +1094,7 @@
         <v>139</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE3">
         <v>8000</v>
@@ -1189,7 +1189,7 @@
         <v>139</v>
       </c>
       <c r="AD4">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE4">
         <v>8000</v>
@@ -1284,7 +1284,7 @@
         <v>139</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE5">
         <v>8000</v>
@@ -1379,7 +1379,7 @@
         <v>139</v>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE6">
         <v>8000</v>
@@ -1474,7 +1474,7 @@
         <v>139</v>
       </c>
       <c r="AD7">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE7">
         <v>8000</v>
@@ -1569,7 +1569,7 @@
         <v>139</v>
       </c>
       <c r="AD8">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE8">
         <v>8000</v>
@@ -1664,7 +1664,7 @@
         <v>139</v>
       </c>
       <c r="AD9">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE9">
         <v>8000</v>
@@ -1759,7 +1759,7 @@
         <v>139</v>
       </c>
       <c r="AD10">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE10">
         <v>8000</v>
@@ -1854,7 +1854,7 @@
         <v>139</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE11">
         <v>8000</v>
@@ -1952,7 +1952,7 @@
         <v>139</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE12">
         <v>8000</v>
@@ -2050,7 +2050,7 @@
         <v>139</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE13">
         <v>8000</v>
@@ -2145,7 +2145,7 @@
         <v>139</v>
       </c>
       <c r="AD14">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE14">
         <v>8000</v>
@@ -2240,7 +2240,7 @@
         <v>139</v>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE15">
         <v>8000</v>
@@ -2335,7 +2335,7 @@
         <v>139</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE16">
         <v>8000</v>
@@ -6438,7 +6438,7 @@
         <v>139</v>
       </c>
       <c r="AD59">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE59">
         <v>8000</v>
@@ -6533,7 +6533,7 @@
         <v>139</v>
       </c>
       <c r="AD60">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE60">
         <v>8000</v>
@@ -6628,7 +6628,7 @@
         <v>139</v>
       </c>
       <c r="AD61">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE61">
         <v>8000</v>
@@ -6723,7 +6723,7 @@
         <v>139</v>
       </c>
       <c r="AD62">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE62">
         <v>8000</v>
@@ -6821,7 +6821,7 @@
         <v>139</v>
       </c>
       <c r="AD63">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE63">
         <v>8000</v>
@@ -6916,7 +6916,7 @@
         <v>139</v>
       </c>
       <c r="AD64">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE64">
         <v>8000</v>
@@ -7011,7 +7011,7 @@
         <v>139</v>
       </c>
       <c r="AD65">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE65">
         <v>8000</v>
@@ -7106,7 +7106,7 @@
         <v>139</v>
       </c>
       <c r="AD66">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE66">
         <v>8000</v>
@@ -7201,7 +7201,7 @@
         <v>139</v>
       </c>
       <c r="AD67">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE67">
         <v>8000</v>
@@ -7296,7 +7296,7 @@
         <v>139</v>
       </c>
       <c r="AD68">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE68">
         <v>8000</v>
@@ -7391,7 +7391,7 @@
         <v>139</v>
       </c>
       <c r="AD69">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE69">
         <v>8000</v>
@@ -7486,7 +7486,7 @@
         <v>139</v>
       </c>
       <c r="AD70">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE70">
         <v>8000</v>
@@ -7581,7 +7581,7 @@
         <v>139</v>
       </c>
       <c r="AD71">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE71">
         <v>8000</v>
@@ -7679,7 +7679,7 @@
         <v>139</v>
       </c>
       <c r="AD72">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE72">
         <v>8000</v>
@@ -12655,7 +12655,7 @@
         <v>139</v>
       </c>
       <c r="AD124">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE124">
         <v>8000</v>
@@ -12750,7 +12750,7 @@
         <v>139</v>
       </c>
       <c r="AD125">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE125">
         <v>8000</v>
@@ -12845,7 +12845,7 @@
         <v>139</v>
       </c>
       <c r="AD126">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE126">
         <v>8000</v>
@@ -12940,7 +12940,7 @@
         <v>139</v>
       </c>
       <c r="AD127">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE127">
         <v>8000</v>
@@ -13035,7 +13035,7 @@
         <v>139</v>
       </c>
       <c r="AD128">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE128">
         <v>8000</v>
@@ -13130,7 +13130,7 @@
         <v>139</v>
       </c>
       <c r="AD129">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE129">
         <v>8000</v>
@@ -13225,7 +13225,7 @@
         <v>139</v>
       </c>
       <c r="AD130">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE130">
         <v>8000</v>
@@ -13320,7 +13320,7 @@
         <v>139</v>
       </c>
       <c r="AD131">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE131">
         <v>8000</v>
@@ -13415,7 +13415,7 @@
         <v>139</v>
       </c>
       <c r="AD132">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE132">
         <v>8000</v>
@@ -13510,7 +13510,7 @@
         <v>139</v>
       </c>
       <c r="AD133">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE133">
         <v>8000</v>
@@ -13608,7 +13608,7 @@
         <v>139</v>
       </c>
       <c r="AD134">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE134">
         <v>8000</v>
@@ -13703,7 +13703,7 @@
         <v>139</v>
       </c>
       <c r="AD135">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE135">
         <v>8000</v>
@@ -13798,7 +13798,7 @@
         <v>139</v>
       </c>
       <c r="AD136">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE136">
         <v>8000</v>
@@ -13893,7 +13893,7 @@
         <v>139</v>
       </c>
       <c r="AD137">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE137">
         <v>8000</v>
@@ -15995,7 +15995,7 @@
         <v>139</v>
       </c>
       <c r="AD159">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE159">
         <v>8000</v>
@@ -16090,7 +16090,7 @@
         <v>139</v>
       </c>
       <c r="AD160">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE160">
         <v>8000</v>
@@ -16185,7 +16185,7 @@
         <v>139</v>
       </c>
       <c r="AD161">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE161">
         <v>8000</v>
@@ -16280,7 +16280,7 @@
         <v>139</v>
       </c>
       <c r="AD162">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE162">
         <v>8000</v>
@@ -16375,7 +16375,7 @@
         <v>139</v>
       </c>
       <c r="AD163">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE163">
         <v>8000</v>
@@ -16470,7 +16470,7 @@
         <v>139</v>
       </c>
       <c r="AD164">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE164">
         <v>8000</v>
@@ -16565,7 +16565,7 @@
         <v>139</v>
       </c>
       <c r="AD165">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE165">
         <v>8000</v>
@@ -17999,7 +17999,7 @@
         <v>139</v>
       </c>
       <c r="AD180">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE180">
         <v>8000</v>
@@ -18097,7 +18097,7 @@
         <v>139</v>
       </c>
       <c r="AD181">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE181">
         <v>8000</v>
@@ -18192,7 +18192,7 @@
         <v>139</v>
       </c>
       <c r="AD182">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE182">
         <v>8000</v>
@@ -18287,7 +18287,7 @@
         <v>139</v>
       </c>
       <c r="AD183">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE183">
         <v>8000</v>
@@ -18382,7 +18382,7 @@
         <v>139</v>
       </c>
       <c r="AD184">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE184">
         <v>8000</v>
@@ -18477,7 +18477,7 @@
         <v>139</v>
       </c>
       <c r="AD185">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE185">
         <v>8000</v>
@@ -18572,7 +18572,7 @@
         <v>139</v>
       </c>
       <c r="AD186">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE186">
         <v>8000</v>
@@ -18667,7 +18667,7 @@
         <v>139</v>
       </c>
       <c r="AD187">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE187">
         <v>8000</v>
@@ -18762,7 +18762,7 @@
         <v>139</v>
       </c>
       <c r="AD188">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE188">
         <v>8000</v>
@@ -18857,7 +18857,7 @@
         <v>139</v>
       </c>
       <c r="AD189">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE189">
         <v>8000</v>
@@ -18952,7 +18952,7 @@
         <v>139</v>
       </c>
       <c r="AD190">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE190">
         <v>8000</v>
@@ -19047,7 +19047,7 @@
         <v>139</v>
       </c>
       <c r="AD191">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE191">
         <v>8000</v>
@@ -19142,7 +19142,7 @@
         <v>139</v>
       </c>
       <c r="AD192">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE192">
         <v>8000</v>
@@ -19237,7 +19237,7 @@
         <v>139</v>
       </c>
       <c r="AD193">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE193">
         <v>8000</v>
@@ -20668,7 +20668,7 @@
         <v>139</v>
       </c>
       <c r="AD208">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE208">
         <v>8000</v>
@@ -20763,7 +20763,7 @@
         <v>139</v>
       </c>
       <c r="AD209">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE209">
         <v>8000</v>
@@ -20858,7 +20858,7 @@
         <v>139</v>
       </c>
       <c r="AD210">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE210">
         <v>8000</v>
@@ -20953,7 +20953,7 @@
         <v>139</v>
       </c>
       <c r="AD211">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE211">
         <v>8000</v>
@@ -21048,7 +21048,7 @@
         <v>139</v>
       </c>
       <c r="AD212">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE212">
         <v>8000</v>
@@ -21146,7 +21146,7 @@
         <v>139</v>
       </c>
       <c r="AD213">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE213">
         <v>8000</v>
@@ -21244,7 +21244,7 @@
         <v>139</v>
       </c>
       <c r="AD214">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE214">
         <v>8000</v>
@@ -21339,7 +21339,7 @@
         <v>139</v>
       </c>
       <c r="AD215">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE215">
         <v>8000</v>
@@ -21434,7 +21434,7 @@
         <v>139</v>
       </c>
       <c r="AD216">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE216">
         <v>8000</v>
@@ -21529,7 +21529,7 @@
         <v>139</v>
       </c>
       <c r="AD217">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE217">
         <v>8000</v>
@@ -21624,7 +21624,7 @@
         <v>139</v>
       </c>
       <c r="AD218">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE218">
         <v>8000</v>
@@ -21719,7 +21719,7 @@
         <v>139</v>
       </c>
       <c r="AD219">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE219">
         <v>8000</v>
@@ -21814,7 +21814,7 @@
         <v>139</v>
       </c>
       <c r="AD220">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE220">
         <v>8000</v>
@@ -21909,7 +21909,7 @@
         <v>139</v>
       </c>
       <c r="AD221">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE221">
         <v>8000</v>
@@ -23331,7 +23331,7 @@
         <v>31090.90891717494</v>
       </c>
       <c r="AD236">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE236">
         <v>8000</v>
@@ -23426,7 +23426,7 @@
         <v>139</v>
       </c>
       <c r="AD237">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE237">
         <v>8000</v>
@@ -23521,7 +23521,7 @@
         <v>139</v>
       </c>
       <c r="AD238">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE238">
         <v>8000</v>
@@ -23616,7 +23616,7 @@
         <v>139</v>
       </c>
       <c r="AD239">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE239">
         <v>8000</v>
@@ -23711,7 +23711,7 @@
         <v>139</v>
       </c>
       <c r="AD240">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE240">
         <v>8000</v>
@@ -23806,7 +23806,7 @@
         <v>139</v>
       </c>
       <c r="AD241">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE241">
         <v>8000</v>
@@ -23901,7 +23901,7 @@
         <v>139</v>
       </c>
       <c r="AD242">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE242">
         <v>8000</v>
@@ -23999,7 +23999,7 @@
         <v>139</v>
       </c>
       <c r="AD243">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE243">
         <v>8000</v>
@@ -24097,7 +24097,7 @@
         <v>139</v>
       </c>
       <c r="AD244">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE244">
         <v>8000</v>
@@ -24192,7 +24192,7 @@
         <v>139</v>
       </c>
       <c r="AD245">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE245">
         <v>8000</v>
@@ -24287,7 +24287,7 @@
         <v>139</v>
       </c>
       <c r="AD246">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE246">
         <v>8000</v>
@@ -24382,7 +24382,7 @@
         <v>139</v>
       </c>
       <c r="AD247">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE247">
         <v>8000</v>
@@ -24477,7 +24477,7 @@
         <v>139</v>
       </c>
       <c r="AD248">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE248">
         <v>8000</v>
@@ -24572,7 +24572,7 @@
         <v>139</v>
       </c>
       <c r="AD249">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE249">
         <v>8000</v>
@@ -24667,7 +24667,7 @@
         <v>139</v>
       </c>
       <c r="AD250">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE250">
         <v>8000</v>
@@ -26098,7 +26098,7 @@
         <v>139</v>
       </c>
       <c r="AD265">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE265">
         <v>8000</v>
@@ -26193,7 +26193,7 @@
         <v>139</v>
       </c>
       <c r="AD266">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE266">
         <v>8000</v>
@@ -26288,7 +26288,7 @@
         <v>139</v>
       </c>
       <c r="AD267">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE267">
         <v>8000</v>
@@ -26386,7 +26386,7 @@
         <v>139</v>
       </c>
       <c r="AD268">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE268">
         <v>8000</v>
@@ -26481,7 +26481,7 @@
         <v>139</v>
       </c>
       <c r="AD269">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE269">
         <v>8000</v>
@@ -26576,7 +26576,7 @@
         <v>139</v>
       </c>
       <c r="AD270">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE270">
         <v>8000</v>
@@ -26671,7 +26671,7 @@
         <v>139</v>
       </c>
       <c r="AD271">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE271">
         <v>8000</v>
@@ -27434,7 +27434,7 @@
         <v>139</v>
       </c>
       <c r="AD279">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE279">
         <v>8000</v>
@@ -27529,7 +27529,7 @@
         <v>139</v>
       </c>
       <c r="AD280">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE280">
         <v>8000</v>
@@ -27624,7 +27624,7 @@
         <v>139</v>
       </c>
       <c r="AD281">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE281">
         <v>8000</v>
@@ -27719,7 +27719,7 @@
         <v>139</v>
       </c>
       <c r="AD282">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE282">
         <v>8000</v>
@@ -27814,7 +27814,7 @@
         <v>139</v>
       </c>
       <c r="AD283">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE283">
         <v>8000</v>
@@ -27912,7 +27912,7 @@
         <v>139</v>
       </c>
       <c r="AD284">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE284">
         <v>8000</v>
@@ -28007,7 +28007,7 @@
         <v>139</v>
       </c>
       <c r="AD285">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE285">
         <v>8000</v>
@@ -28102,7 +28102,7 @@
         <v>139</v>
       </c>
       <c r="AD286">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE286">
         <v>8000</v>
@@ -28197,7 +28197,7 @@
         <v>139</v>
       </c>
       <c r="AD287">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE287">
         <v>8000</v>
@@ -28292,7 +28292,7 @@
         <v>139</v>
       </c>
       <c r="AD288">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE288">
         <v>8000</v>
@@ -28387,7 +28387,7 @@
         <v>139</v>
       </c>
       <c r="AD289">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE289">
         <v>8000</v>
@@ -28482,7 +28482,7 @@
         <v>139</v>
       </c>
       <c r="AD290">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE290">
         <v>8000</v>
@@ -28577,7 +28577,7 @@
         <v>139</v>
       </c>
       <c r="AD291">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE291">
         <v>8000</v>
@@ -28672,7 +28672,7 @@
         <v>139</v>
       </c>
       <c r="AD292">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE292">
         <v>8000</v>
@@ -28767,7 +28767,7 @@
         <v>139</v>
       </c>
       <c r="AD293">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE293">
         <v>8000</v>
@@ -28862,7 +28862,7 @@
         <v>139</v>
       </c>
       <c r="AD294">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE294">
         <v>8000</v>
@@ -28957,7 +28957,7 @@
         <v>139</v>
       </c>
       <c r="AD295">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE295">
         <v>8000</v>
@@ -29052,7 +29052,7 @@
         <v>139</v>
       </c>
       <c r="AD296">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE296">
         <v>8000</v>
@@ -29147,7 +29147,7 @@
         <v>139</v>
       </c>
       <c r="AD297">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE297">
         <v>8000</v>
@@ -29245,7 +29245,7 @@
         <v>139</v>
       </c>
       <c r="AD298">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE298">
         <v>8000</v>
@@ -29343,7 +29343,7 @@
         <v>139</v>
       </c>
       <c r="AD299">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE299">
         <v>8000</v>
@@ -29441,7 +29441,7 @@
         <v>139</v>
       </c>
       <c r="AD300">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE300">
         <v>8000</v>
@@ -29539,7 +29539,7 @@
         <v>139</v>
       </c>
       <c r="AD301">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE301">
         <v>8000</v>
@@ -29634,7 +29634,7 @@
         <v>139</v>
       </c>
       <c r="AD302">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE302">
         <v>8000</v>
@@ -29729,7 +29729,7 @@
         <v>139</v>
       </c>
       <c r="AD303">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE303">
         <v>8000</v>
@@ -29824,7 +29824,7 @@
         <v>139</v>
       </c>
       <c r="AD304">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE304">
         <v>8000</v>
@@ -29919,7 +29919,7 @@
         <v>139</v>
       </c>
       <c r="AD305">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE305">
         <v>8000</v>
@@ -30014,7 +30014,7 @@
         <v>139</v>
       </c>
       <c r="AD306">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE306">
         <v>8000</v>
@@ -30109,7 +30109,7 @@
         <v>139</v>
       </c>
       <c r="AD307">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE307">
         <v>8000</v>
@@ -30207,7 +30207,7 @@
         <v>139</v>
       </c>
       <c r="AD308">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE308">
         <v>8000</v>
@@ -30302,7 +30302,7 @@
         <v>139</v>
       </c>
       <c r="AD309">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE309">
         <v>8000</v>
@@ -30397,7 +30397,7 @@
         <v>139</v>
       </c>
       <c r="AD310">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE310">
         <v>8000</v>
@@ -30492,7 +30492,7 @@
         <v>139</v>
       </c>
       <c r="AD311">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE311">
         <v>8000</v>
@@ -30587,7 +30587,7 @@
         <v>139</v>
       </c>
       <c r="AD312">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE312">
         <v>8000</v>
@@ -30682,7 +30682,7 @@
         <v>139</v>
       </c>
       <c r="AD313">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE313">
         <v>8000</v>
@@ -30777,7 +30777,7 @@
         <v>139</v>
       </c>
       <c r="AD314">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE314">
         <v>8000</v>
@@ -30872,7 +30872,7 @@
         <v>139</v>
       </c>
       <c r="AD315">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE315">
         <v>8000</v>
@@ -30967,7 +30967,7 @@
         <v>139</v>
       </c>
       <c r="AD316">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE316">
         <v>8000</v>
@@ -31062,7 +31062,7 @@
         <v>139</v>
       </c>
       <c r="AD317">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE317">
         <v>8000</v>
@@ -31157,7 +31157,7 @@
         <v>139</v>
       </c>
       <c r="AD318">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE318">
         <v>8000</v>
@@ -31252,7 +31252,7 @@
         <v>139</v>
       </c>
       <c r="AD319">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE319">
         <v>8000</v>
@@ -31347,7 +31347,7 @@
         <v>139</v>
       </c>
       <c r="AD320">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE320">
         <v>8000</v>
@@ -31445,7 +31445,7 @@
         <v>139</v>
       </c>
       <c r="AD321">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE321">
         <v>8000</v>
@@ -31540,7 +31540,7 @@
         <v>139</v>
       </c>
       <c r="AD322">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE322">
         <v>8000</v>
@@ -31635,7 +31635,7 @@
         <v>139</v>
       </c>
       <c r="AD323">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE323">
         <v>8000</v>
@@ -31730,7 +31730,7 @@
         <v>139</v>
       </c>
       <c r="AD324">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE324">
         <v>8000</v>
@@ -31825,7 +31825,7 @@
         <v>139</v>
       </c>
       <c r="AD325">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE325">
         <v>8000</v>
@@ -31920,7 +31920,7 @@
         <v>139</v>
       </c>
       <c r="AD326">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE326">
         <v>8000</v>
@@ -32018,7 +32018,7 @@
         <v>139</v>
       </c>
       <c r="AD327">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE327">
         <v>8000</v>
@@ -32113,7 +32113,7 @@
         <v>139</v>
       </c>
       <c r="AD328">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE328">
         <v>8000</v>
@@ -32208,7 +32208,7 @@
         <v>139</v>
       </c>
       <c r="AD329">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE329">
         <v>8000</v>
@@ -32303,7 +32303,7 @@
         <v>139</v>
       </c>
       <c r="AD330">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE330">
         <v>8000</v>
@@ -32398,7 +32398,7 @@
         <v>139</v>
       </c>
       <c r="AD331">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE331">
         <v>8000</v>
@@ -32493,7 +32493,7 @@
         <v>139</v>
       </c>
       <c r="AD332">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE332">
         <v>8000</v>
@@ -32588,7 +32588,7 @@
         <v>139</v>
       </c>
       <c r="AD333">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE333">
         <v>8000</v>
@@ -32683,7 +32683,7 @@
         <v>139</v>
       </c>
       <c r="AD334">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AE334">
         <v>8000</v>
@@ -32778,7 +32778,7 @@
         <v>139</v>
       </c>
       <c r="AD335">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE335">
         <v>8000</v>
@@ -32876,7 +32876,7 @@
         <v>139</v>
       </c>
       <c r="AD336">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE336">
         <v>8000</v>
@@ -32971,7 +32971,7 @@
         <v>139</v>
       </c>
       <c r="AD337">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE337">
         <v>8000</v>
@@ -33066,7 +33066,7 @@
         <v>139</v>
       </c>
       <c r="AD338">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE338">
         <v>8000</v>
@@ -33164,7 +33164,7 @@
         <v>139</v>
       </c>
       <c r="AD339">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE339">
         <v>8000</v>
@@ -33259,7 +33259,7 @@
         <v>139</v>
       </c>
       <c r="AD340">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE340">
         <v>8000</v>
@@ -33354,7 +33354,7 @@
         <v>139</v>
       </c>
       <c r="AD341">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE341">
         <v>8000</v>
@@ -33449,7 +33449,7 @@
         <v>139</v>
       </c>
       <c r="AD342">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE342">
         <v>8000</v>
@@ -33544,7 +33544,7 @@
         <v>139</v>
       </c>
       <c r="AD343">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE343">
         <v>8000</v>
@@ -33639,7 +33639,7 @@
         <v>139</v>
       </c>
       <c r="AD344">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE344">
         <v>8000</v>
@@ -33734,7 +33734,7 @@
         <v>139</v>
       </c>
       <c r="AD345">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE345">
         <v>8000</v>
@@ -33829,7 +33829,7 @@
         <v>139</v>
       </c>
       <c r="AD346">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE346">
         <v>8000</v>
@@ -33924,7 +33924,7 @@
         <v>139</v>
       </c>
       <c r="AD347">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE347">
         <v>8000</v>
@@ -34019,7 +34019,7 @@
         <v>139</v>
       </c>
       <c r="AD348">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE348">
         <v>8000</v>
@@ -40212,7 +40212,7 @@
         <v>139</v>
       </c>
       <c r="AD413">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE413">
         <v>8000</v>
@@ -40307,7 +40307,7 @@
         <v>139</v>
       </c>
       <c r="AD414">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE414">
         <v>8000</v>
@@ -40405,7 +40405,7 @@
         <v>139</v>
       </c>
       <c r="AD415">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE415">
         <v>8000</v>
@@ -40503,7 +40503,7 @@
         <v>139</v>
       </c>
       <c r="AD416">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE416">
         <v>8000</v>
@@ -40598,7 +40598,7 @@
         <v>139</v>
       </c>
       <c r="AD417">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE417">
         <v>8000</v>
@@ -40693,7 +40693,7 @@
         <v>139</v>
       </c>
       <c r="AD418">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE418">
         <v>8000</v>
@@ -40788,7 +40788,7 @@
         <v>139</v>
       </c>
       <c r="AD419">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE419">
         <v>8000</v>
@@ -40883,7 +40883,7 @@
         <v>139</v>
       </c>
       <c r="AD420">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE420">
         <v>8000</v>
@@ -40978,7 +40978,7 @@
         <v>139</v>
       </c>
       <c r="AD421">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE421">
         <v>8000</v>
@@ -41073,7 +41073,7 @@
         <v>139</v>
       </c>
       <c r="AD422">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE422">
         <v>8000</v>
@@ -41168,7 +41168,7 @@
         <v>139</v>
       </c>
       <c r="AD423">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE423">
         <v>8000</v>
@@ -41263,7 +41263,7 @@
         <v>139</v>
       </c>
       <c r="AD424">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE424">
         <v>8000</v>
@@ -41358,7 +41358,7 @@
         <v>139</v>
       </c>
       <c r="AD425">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE425">
         <v>8000</v>
@@ -41453,7 +41453,7 @@
         <v>139</v>
       </c>
       <c r="AD426">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE426">
         <v>8000</v>
@@ -41548,7 +41548,7 @@
         <v>139</v>
       </c>
       <c r="AD427">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE427">
         <v>8000</v>
@@ -41643,7 +41643,7 @@
         <v>139</v>
       </c>
       <c r="AD428">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE428">
         <v>8000</v>
@@ -41738,7 +41738,7 @@
         <v>139</v>
       </c>
       <c r="AD429">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE429">
         <v>8000</v>
@@ -41833,7 +41833,7 @@
         <v>139</v>
       </c>
       <c r="AD430">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE430">
         <v>8000</v>
@@ -41928,7 +41928,7 @@
         <v>139</v>
       </c>
       <c r="AD431">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE431">
         <v>8000</v>
@@ -42026,7 +42026,7 @@
         <v>139</v>
       </c>
       <c r="AD432">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE432">
         <v>8000</v>
@@ -42124,7 +42124,7 @@
         <v>139</v>
       </c>
       <c r="AD433">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE433">
         <v>8000</v>
@@ -42222,7 +42222,7 @@
         <v>139</v>
       </c>
       <c r="AD434">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE434">
         <v>8000</v>
@@ -42317,7 +42317,7 @@
         <v>139</v>
       </c>
       <c r="AD435">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE435">
         <v>8000</v>
@@ -42412,7 +42412,7 @@
         <v>139</v>
       </c>
       <c r="AD436">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE436">
         <v>8000</v>
@@ -42507,7 +42507,7 @@
         <v>139</v>
       </c>
       <c r="AD437">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE437">
         <v>8000</v>
@@ -42602,7 +42602,7 @@
         <v>139</v>
       </c>
       <c r="AD438">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE438">
         <v>8000</v>
@@ -42697,7 +42697,7 @@
         <v>139</v>
       </c>
       <c r="AD439">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE439">
         <v>8000</v>
@@ -42792,7 +42792,7 @@
         <v>139</v>
       </c>
       <c r="AD440">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE440">
         <v>8000</v>
@@ -42887,7 +42887,7 @@
         <v>139</v>
       </c>
       <c r="AD441">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE441">
         <v>8000</v>
@@ -42982,7 +42982,7 @@
         <v>139</v>
       </c>
       <c r="AD442">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE442">
         <v>8000</v>
@@ -43077,7 +43077,7 @@
         <v>139</v>
       </c>
       <c r="AD443">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE443">
         <v>8000</v>
@@ -43172,7 +43172,7 @@
         <v>139</v>
       </c>
       <c r="AD444">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE444">
         <v>8000</v>
@@ -43267,7 +43267,7 @@
         <v>139</v>
       </c>
       <c r="AD445">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE445">
         <v>8000</v>
@@ -43362,7 +43362,7 @@
         <v>139</v>
       </c>
       <c r="AD446">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE446">
         <v>8000</v>
@@ -43457,7 +43457,7 @@
         <v>139</v>
       </c>
       <c r="AD447">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE447">
         <v>8000</v>
@@ -43552,7 +43552,7 @@
         <v>139</v>
       </c>
       <c r="AD448">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE448">
         <v>8000</v>
@@ -43647,7 +43647,7 @@
         <v>139</v>
       </c>
       <c r="AD449">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE449">
         <v>8000</v>
@@ -43742,7 +43742,7 @@
         <v>139</v>
       </c>
       <c r="AD450">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE450">
         <v>8000</v>
@@ -43837,7 +43837,7 @@
         <v>139</v>
       </c>
       <c r="AD451">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE451">
         <v>8000</v>
@@ -43932,7 +43932,7 @@
         <v>139</v>
       </c>
       <c r="AD452">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE452">
         <v>8000</v>
@@ -44027,7 +44027,7 @@
         <v>139</v>
       </c>
       <c r="AD453">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE453">
         <v>8000</v>
@@ -44125,7 +44125,7 @@
         <v>139</v>
       </c>
       <c r="AD454">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE454">
         <v>8000</v>
@@ -44220,7 +44220,7 @@
         <v>139</v>
       </c>
       <c r="AD455">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE455">
         <v>8000</v>
@@ -44315,7 +44315,7 @@
         <v>139</v>
       </c>
       <c r="AD456">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE456">
         <v>8000</v>
@@ -44410,7 +44410,7 @@
         <v>139</v>
       </c>
       <c r="AD457">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE457">
         <v>8000</v>
@@ -44505,7 +44505,7 @@
         <v>139</v>
       </c>
       <c r="AD458">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE458">
         <v>8000</v>
@@ -44600,7 +44600,7 @@
         <v>139</v>
       </c>
       <c r="AD459">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE459">
         <v>8000</v>
@@ -44695,7 +44695,7 @@
         <v>139</v>
       </c>
       <c r="AD460">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE460">
         <v>8000</v>
@@ -44793,7 +44793,7 @@
         <v>139</v>
       </c>
       <c r="AD461">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE461">
         <v>8000</v>
@@ -46224,7 +46224,7 @@
         <v>139</v>
       </c>
       <c r="AD476">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE476">
         <v>8000</v>
@@ -46319,7 +46319,7 @@
         <v>139</v>
       </c>
       <c r="AD477">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE477">
         <v>8000</v>
@@ -46417,7 +46417,7 @@
         <v>139</v>
       </c>
       <c r="AD478">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE478">
         <v>8000</v>
@@ -46512,7 +46512,7 @@
         <v>139</v>
       </c>
       <c r="AD479">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE479">
         <v>8000</v>
@@ -46607,7 +46607,7 @@
         <v>139</v>
       </c>
       <c r="AD480">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE480">
         <v>8000</v>
@@ -46702,7 +46702,7 @@
         <v>139</v>
       </c>
       <c r="AD481">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE481">
         <v>8000</v>
@@ -46797,7 +46797,7 @@
         <v>139</v>
       </c>
       <c r="AD482">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE482">
         <v>8000</v>
@@ -46892,7 +46892,7 @@
         <v>139</v>
       </c>
       <c r="AD483">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE483">
         <v>8000</v>
@@ -46987,7 +46987,7 @@
         <v>139</v>
       </c>
       <c r="AD484">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE484">
         <v>8000</v>
@@ -47082,7 +47082,7 @@
         <v>139</v>
       </c>
       <c r="AD485">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE485">
         <v>8000</v>
@@ -47177,7 +47177,7 @@
         <v>139</v>
       </c>
       <c r="AD486">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE486">
         <v>8000</v>
@@ -47272,7 +47272,7 @@
         <v>139</v>
       </c>
       <c r="AD487">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE487">
         <v>8000</v>
@@ -47367,7 +47367,7 @@
         <v>139</v>
       </c>
       <c r="AD488">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE488">
         <v>8000</v>
@@ -47462,7 +47462,7 @@
         <v>139</v>
       </c>
       <c r="AD489">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE489">
         <v>8000</v>
@@ -47557,7 +47557,7 @@
         <v>139</v>
       </c>
       <c r="AD490">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE490">
         <v>8000</v>
@@ -47652,7 +47652,7 @@
         <v>139</v>
       </c>
       <c r="AD491">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE491">
         <v>8000</v>
@@ -47747,7 +47747,7 @@
         <v>139</v>
       </c>
       <c r="AD492">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE492">
         <v>8000</v>
@@ -47845,7 +47845,7 @@
         <v>139</v>
       </c>
       <c r="AD493">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE493">
         <v>8000</v>
@@ -47943,7 +47943,7 @@
         <v>139</v>
       </c>
       <c r="AD494">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE494">
         <v>8000</v>
@@ -48038,7 +48038,7 @@
         <v>139</v>
       </c>
       <c r="AD495">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE495">
         <v>8000</v>
@@ -48133,7 +48133,7 @@
         <v>139</v>
       </c>
       <c r="AD496">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE496">
         <v>8000</v>
